--- a/documents/Published/JSON Grid/GridByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/JSON Grid/GridByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\documents\Published\JSON Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\JSON Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD5297-57D7-41C2-8C33-A9BE3EA3DCBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7965" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
@@ -185,12 +186,6 @@
     <t>Display basic chart</t>
   </si>
   <si>
-    <t>Drag 'Order Date' and 'Total Sales' column in 'Values' field</t>
-  </si>
-  <si>
-    <t>Visual should be rendered for 'Order Date' and 'Total Sales'</t>
-  </si>
-  <si>
     <t>Tooltip</t>
   </si>
   <si>
@@ -308,9 +303,6 @@
 2. Hover over first image in the visual</t>
   </si>
   <si>
-    <t>Drag 'Order Date' column in 'Tooltip' field</t>
-  </si>
-  <si>
     <t>Should display default text  "Please select 'Values' "</t>
   </si>
   <si>
@@ -345,6 +337,15 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Drag 'Date1' column in 'Tooltip' field</t>
+  </si>
+  <si>
+    <t>Drag 'Quarter', 'Month'  and 'Sales' column in 'Values' field</t>
+  </si>
+  <si>
+    <t>Visual should be rendered for 'Quarter', 'Month'  and 'Sales'</t>
   </si>
 </sst>
 </file>
@@ -491,15 +492,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD979CE-A2F4-4A57-BF74-C680FEBF31B0}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,25 +850,25 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -878,25 +879,25 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,22 +907,22 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -929,172 +930,172 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,28 +1103,28 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1131,28 +1132,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,28 +1161,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1272,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,33 +1361,33 @@
         <v>14</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
+      <c r="C15" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -1396,45 +1397,45 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="21">
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>72</v>
+      <c r="C19" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -1444,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
